--- a/loci_point/Output_excel/OC_OnSS Transformer Outage_points.xlsx
+++ b/loci_point/Output_excel/OC_OnSS Transformer Outage_points.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,31 +444,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
-        <v>4.000948</v>
+        <v>10.013111</v>
       </c>
       <c r="D2">
-        <v>-0.196928</v>
+        <v>71.703008</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>54.37793888973091</v>
+        <v>84.88263631567753</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>13.26291192432461</v>
+        <v>17.68388256576615</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -479,34 +479,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="C3">
-        <v>2.021296</v>
+        <v>194.21615</v>
       </c>
       <c r="D3">
-        <v>28.992429</v>
+        <v>225.010632</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>70.7355302630646</v>
+      </c>
+      <c r="H3">
         <v>48</v>
       </c>
-      <c r="G3">
-        <v>6.631455962162306</v>
-      </c>
-      <c r="H3">
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>14.73656880480513</v>
+      </c>
+      <c r="K3">
         <v>10</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>18.56807669405446</v>
-      </c>
-      <c r="K3">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,558 +514,1713 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>2.715175</v>
+        <v>98.739986</v>
       </c>
       <c r="D4">
-        <v>43.281583</v>
+        <v>-164.894873</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="G4">
-        <v>22.28169203286535</v>
+        <v>63.66197723675813</v>
       </c>
       <c r="H4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>14.85446135524356</v>
+        <v>54.37793888973091</v>
       </c>
       <c r="K4">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5.103733</v>
+        <v>2.414246</v>
       </c>
       <c r="D5">
-        <v>69.516897</v>
+        <v>10.177285</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>42.44131815783877</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>40</v>
-      </c>
-      <c r="G5">
-        <v>-26.52582384864923</v>
-      </c>
-      <c r="H5">
-        <v>-70</v>
-      </c>
-      <c r="I5">
-        <v>31.42857142857143</v>
-      </c>
       <c r="J5">
-        <v>-20.02970372244942</v>
+        <v>8.841941282883075</v>
       </c>
       <c r="K5">
-        <v>-52.85714285714286</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>2.075809</v>
+      </c>
+      <c r="D6">
+        <v>34.167202</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>6.631455962162306</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>22.623785</v>
-      </c>
-      <c r="D6">
-        <v>125.789074</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>90</v>
-      </c>
-      <c r="G6">
-        <v>-24.11438531695384</v>
-      </c>
-      <c r="H6">
-        <v>-100</v>
-      </c>
       <c r="I6">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>-16.88006972186769</v>
+        <v>18.56807669405446</v>
       </c>
       <c r="K6">
-        <v>-70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>32.583709</v>
+        <v>2.488729</v>
       </c>
       <c r="D7">
-        <v>133.415151</v>
+        <v>51.639732</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G7">
-        <v>-26.52582384864922</v>
+        <v>22.28169203286535</v>
       </c>
       <c r="H7">
-        <v>-130</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>37.14285714285715</v>
+        <v>48</v>
       </c>
       <c r="J7">
-        <v>-18.75268865490586</v>
+        <v>5.305164769729846</v>
       </c>
       <c r="K7">
-        <v>-91.9047619047619</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>32.162549</v>
+        <v>3.210558</v>
       </c>
       <c r="D8">
-        <v>208.581972</v>
+        <v>67.76696099999999</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>-21.8447961106523</v>
+        <v>-30.94679449009077</v>
       </c>
       <c r="H8">
-        <v>-140</v>
+        <v>-70</v>
       </c>
       <c r="I8">
-        <v>61.66666666666666</v>
+        <v>30</v>
       </c>
       <c r="J8">
-        <v>-16.12353998643385</v>
+        <v>-22.10485320720769</v>
       </c>
       <c r="K8">
-        <v>-103.3333333333333</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>46.717404</v>
+        <v>4.29343</v>
       </c>
       <c r="D9">
-        <v>253.415824</v>
+        <v>83.866979</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>16.75315190441004</v>
+        <v>-26.52582384864923</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>-70</v>
       </c>
       <c r="I9">
-        <v>28</v>
+        <v>37.14285714285714</v>
       </c>
       <c r="J9">
-        <v>-4.188287976102509</v>
+        <v>-24.36045047324929</v>
       </c>
       <c r="K9">
-        <v>-30</v>
+        <v>-64.28571428571428</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>104.209876</v>
+        <v>5.971821</v>
       </c>
       <c r="D10">
-        <v>404.436459</v>
+        <v>100.61146</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>120</v>
+        <v>51.90476190476191</v>
       </c>
       <c r="G10">
-        <v>20.7593404032907</v>
+        <v>-25.57847299691175</v>
       </c>
       <c r="H10">
-        <v>180</v>
+        <v>-77.14285714285714</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J10">
-        <v>-3.459890067215116</v>
+        <v>-23.21009586756807</v>
       </c>
       <c r="K10">
-        <v>-30</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>181.325394</v>
+        <v>8.795026999999999</v>
       </c>
       <c r="D11">
-        <v>511.950971</v>
+        <v>118.472824</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>190.5238095238095</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="G11">
-        <v>-61.64096208638487</v>
+        <v>-28.21000314062696</v>
       </c>
       <c r="H11">
-        <v>-580.952380952381</v>
+        <v>-95.71428571428572</v>
       </c>
       <c r="I11">
-        <v>86.28571428571429</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>-39.40979543227885</v>
+        <v>-20.63119632672717</v>
       </c>
       <c r="K11">
-        <v>-371.4285714285714</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>578.03262</v>
+        <v>14.048168</v>
       </c>
       <c r="D12">
-        <v>747.631181</v>
+        <v>137.639871</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>600</v>
+        <v>90</v>
       </c>
       <c r="G12">
-        <v>-82.3215222889114</v>
+        <v>-26.52582384864922</v>
       </c>
       <c r="H12">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="I12">
-        <v>105.2380952380952</v>
+        <v>40</v>
       </c>
       <c r="J12">
-        <v>-37.45847045950466</v>
+        <v>-18.56807669405445</v>
       </c>
       <c r="K12">
-        <v>-409.5238095238095</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1089.979448</v>
+        <v>24.553162</v>
       </c>
       <c r="D13">
-        <v>793.241585</v>
+        <v>156.401041</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G13">
-        <v>-77.01045633478807</v>
+        <v>-24.11438531695384</v>
       </c>
       <c r="H13">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="I13">
-        <v>19.95238095238095</v>
+        <v>40</v>
       </c>
       <c r="J13">
-        <v>-20.37313659650478</v>
+        <v>-16.88006972186769</v>
       </c>
       <c r="K13">
-        <v>-238.0952380952381</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>1272.70103</v>
+        <v>40.162905</v>
       </c>
       <c r="D14">
-        <v>-831.8108120000001</v>
+        <v>164.894235</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="G14">
-        <v>83.36687495289756</v>
+        <v>-41.99922109369461</v>
       </c>
       <c r="H14">
-        <v>1100</v>
+        <v>-190</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="J14">
-        <v>37.89403406949889</v>
+        <v>-26.52582384864923</v>
       </c>
       <c r="K14">
-        <v>500</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>660.987289</v>
+        <v>36.924459</v>
       </c>
       <c r="D15">
-        <v>-879.82863</v>
+        <v>162.565711</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>120</v>
+        <v>69.52380952380952</v>
       </c>
       <c r="G15">
-        <v>45.88250611658244</v>
+        <v>-27.9832866974761</v>
       </c>
       <c r="H15">
-        <v>640</v>
+        <v>-137.1428571428571</v>
       </c>
       <c r="I15">
-        <v>63.33333333333333</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="J15">
-        <v>37.689201452907</v>
+        <v>-22.63925625177754</v>
       </c>
       <c r="K15">
-        <v>525.7142857142857</v>
+        <v>-110.9523809523809</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>244.818821</v>
+        <v>20.411885</v>
       </c>
       <c r="D16">
-        <v>-617.944237</v>
+        <v>184.10268</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>120</v>
       </c>
       <c r="G16">
-        <v>41.40616405642806</v>
+        <v>-26.52582384864923</v>
       </c>
       <c r="H16">
-        <v>640</v>
+        <v>-140</v>
       </c>
       <c r="I16">
-        <v>40.66666666666666</v>
+        <v>56.42857142857143</v>
       </c>
       <c r="J16">
-        <v>31.05462304232104</v>
+        <v>-18.67634536282446</v>
       </c>
       <c r="K16">
-        <v>480</v>
+        <v>-98.57142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>174.270718</v>
+        <v>26.964714</v>
       </c>
       <c r="D17">
-        <v>-529.640818</v>
+        <v>219.653621</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>63.33333333333333</v>
+        <v>120</v>
       </c>
       <c r="G17">
-        <v>32.43024311064091</v>
+        <v>-24.75743559207261</v>
       </c>
       <c r="H17">
-        <v>525.7142857142857</v>
+        <v>-140</v>
       </c>
       <c r="I17">
-        <v>18</v>
+        <v>72.14285714285714</v>
       </c>
       <c r="J17">
-        <v>26.79020083052945</v>
+        <v>-19.95752460993609</v>
       </c>
       <c r="K17">
-        <v>434.2857142857143</v>
+        <v>-112.8571428571429</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>99.594853</v>
+        <v>28.604188</v>
       </c>
       <c r="D18">
-        <v>-414.630214</v>
+        <v>227.882496</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G18">
-        <v>24.72518535031134</v>
+        <v>-23.21009586756807</v>
       </c>
       <c r="H18">
-        <v>438.0952380952381</v>
+        <v>-140</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>74.76190476190476</v>
       </c>
       <c r="J18">
-        <v>24.72518535031134</v>
+        <v>-19.10490884337236</v>
       </c>
       <c r="K18">
-        <v>438.0952380952381</v>
+        <v>-115.2380952380952</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>23.166747</v>
+      </c>
+      <c r="D19">
+        <v>264.201085</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>-23.40513868998461</v>
+      </c>
+      <c r="H19">
+        <v>-150</v>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>-18.72411095198769</v>
+      </c>
+      <c r="K19">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>30.069613</v>
+      </c>
+      <c r="D20">
+        <v>298.916453</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>160</v>
+      </c>
+      <c r="G20">
+        <v>17.68388256576615</v>
+      </c>
+      <c r="H20">
+        <v>120</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>-4.420970641441538</v>
+      </c>
+      <c r="K20">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>34.603139</v>
+      </c>
+      <c r="D21">
+        <v>330.902709</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>160</v>
+      </c>
+      <c r="G21">
+        <v>16.75315190441004</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>-4.188287976102509</v>
+      </c>
+      <c r="K21">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>34.316758</v>
+      </c>
+      <c r="D22">
+        <v>380.973776</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>160</v>
+      </c>
+      <c r="G22">
+        <v>15.91549430918953</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>-3.978873577297383</v>
+      </c>
+      <c r="K22">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>41.928747</v>
+      </c>
+      <c r="D23">
+        <v>440.126066</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>120</v>
+      </c>
+      <c r="G23">
+        <v>22.73642044169934</v>
+      </c>
+      <c r="H23">
+        <v>180</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>-3.789403406949889</v>
+      </c>
+      <c r="K23">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>55.082461</v>
+      </c>
+      <c r="D24">
+        <v>511.610973</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>120</v>
+      </c>
+      <c r="G24">
+        <v>21.70294678525846</v>
+      </c>
+      <c r="H24">
+        <v>180</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>-3.617157797543077</v>
+      </c>
+      <c r="K24">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>76.561643</v>
+      </c>
+      <c r="D25">
+        <v>600.87069</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>120</v>
+      </c>
+      <c r="G25">
+        <v>20.7593404032907</v>
+      </c>
+      <c r="H25">
+        <v>180</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>-3.459890067215116</v>
+      </c>
+      <c r="K25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>112.744908</v>
+      </c>
+      <c r="D26">
+        <v>715.3658789999999</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>120</v>
+      </c>
+      <c r="G26">
+        <v>19.89436788648692</v>
+      </c>
+      <c r="H26">
+        <v>180</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>-3.315727981081154</v>
+      </c>
+      <c r="K26">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>176.687224</v>
+      </c>
+      <c r="D27">
+        <v>865.025925</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>352.3809523809524</v>
+      </c>
+      <c r="G27">
+        <v>-75.78806813899779</v>
+      </c>
+      <c r="H27">
+        <v>-714.2857142857143</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27">
+        <v>-63.66197723675813</v>
+      </c>
+      <c r="K27">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>148</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>294.182411</v>
+      </c>
+      <c r="D28">
+        <v>1060.316588</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>600</v>
+      </c>
+      <c r="G28">
+        <v>-91.82015947609347</v>
+      </c>
+      <c r="H28">
+        <v>-900</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>-61.21343965072898</v>
+      </c>
+      <c r="K28">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>510.79234</v>
+      </c>
+      <c r="D29">
+        <v>1305.279901</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>600</v>
+      </c>
+      <c r="G29">
+        <v>-88.41941282883076</v>
+      </c>
+      <c r="H29">
+        <v>-900</v>
+      </c>
+      <c r="I29">
+        <v>200</v>
+      </c>
+      <c r="J29">
+        <v>-58.9462752192205</v>
+      </c>
+      <c r="K29">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>901.227782</v>
+      </c>
+      <c r="D30">
+        <v>1594.492057</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>1500</v>
+      </c>
+      <c r="G30">
+        <v>-85.26157665637251</v>
+      </c>
+      <c r="H30">
+        <v>-900</v>
+      </c>
+      <c r="I30">
+        <v>200</v>
+      </c>
+      <c r="J30">
+        <v>-56.84105110424834</v>
+      </c>
+      <c r="K30">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>166</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1660.163525</v>
+      </c>
+      <c r="D31">
+        <v>1903.762863</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>1500</v>
+      </c>
+      <c r="G31">
+        <v>-82.3215222889114</v>
+      </c>
+      <c r="H31">
+        <v>-900</v>
+      </c>
+      <c r="I31">
+        <v>200</v>
+      </c>
+      <c r="J31">
+        <v>-54.88101485927426</v>
+      </c>
+      <c r="K31">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>172</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3361.654523</v>
+      </c>
+      <c r="D32">
+        <v>1683.312768</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>2000</v>
+      </c>
+      <c r="G32">
+        <v>-17.68388256576615</v>
+      </c>
+      <c r="H32">
+        <v>-200</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>-17.68388256576615</v>
+      </c>
+      <c r="K32">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>4267.892261</v>
+      </c>
+      <c r="D33">
+        <v>-1347.475581</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>2000</v>
+      </c>
+      <c r="G33">
+        <v>34.22686948212803</v>
+      </c>
+      <c r="H33">
+        <v>400</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>42.78358685266004</v>
+      </c>
+      <c r="K33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1872.64652</v>
+      </c>
+      <c r="D34">
+        <v>-2486.658052</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>1200</v>
+      </c>
+      <c r="G34">
+        <v>91.18251947973171</v>
+      </c>
+      <c r="H34">
+        <v>1100</v>
+      </c>
+      <c r="I34">
+        <v>58.04761904761904</v>
+      </c>
+      <c r="J34">
+        <v>46.18335402220177</v>
+      </c>
+      <c r="K34">
+        <v>557.1428571428571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>782.017096</v>
+      </c>
+      <c r="D35">
+        <v>-1936.034587</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>600</v>
+      </c>
+      <c r="G35">
+        <v>88.41941282883076</v>
+      </c>
+      <c r="H35">
+        <v>1100</v>
+      </c>
+      <c r="I35">
+        <v>314.7619047619048</v>
+      </c>
+      <c r="J35">
+        <v>65.45333157458899</v>
+      </c>
+      <c r="K35">
+        <v>814.2857142857142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>196</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>402.853213</v>
+      </c>
+      <c r="D36">
+        <v>-1485.004273</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>600</v>
+      </c>
+      <c r="G36">
+        <v>85.81884186327692</v>
+      </c>
+      <c r="H36">
+        <v>1100</v>
+      </c>
+      <c r="I36">
+        <v>286.2380952380952</v>
+      </c>
+      <c r="J36">
+        <v>61.29917275948351</v>
+      </c>
+      <c r="K36">
+        <v>785.7142857142858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>242.959883</v>
+      </c>
+      <c r="D37">
+        <v>-1191.516198</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>600</v>
+      </c>
+      <c r="G37">
+        <v>83.36687495289756</v>
+      </c>
+      <c r="H37">
+        <v>1100</v>
+      </c>
+      <c r="I37">
+        <v>229.1904761904761</v>
+      </c>
+      <c r="J37">
+        <v>55.21702107269838</v>
+      </c>
+      <c r="K37">
+        <v>728.5714285714286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>163.477728</v>
+      </c>
+      <c r="D38">
+        <v>-994.161898</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>371.8095238095238</v>
+      </c>
+      <c r="G38">
+        <v>64.2093355066509</v>
+      </c>
+      <c r="H38">
+        <v>871.4285714285714</v>
+      </c>
+      <c r="I38">
+        <v>172.1428571428571</v>
+      </c>
+      <c r="J38">
+        <v>49.47276670184577</v>
+      </c>
+      <c r="K38">
+        <v>671.4285714285713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>118.841839</v>
+      </c>
+      <c r="D39">
+        <v>-854.329301</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>120</v>
+      </c>
+      <c r="G39">
+        <v>45.88250611658244</v>
+      </c>
+      <c r="H39">
+        <v>640</v>
+      </c>
+      <c r="I39">
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <v>45.88250611658244</v>
+      </c>
+      <c r="K39">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>220</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>91.491496</v>
+      </c>
+      <c r="D40">
+        <v>-750.634541</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>120</v>
+      </c>
+      <c r="G40">
+        <v>44.67507174509343</v>
+      </c>
+      <c r="H40">
+        <v>640</v>
+      </c>
+      <c r="I40">
+        <v>120</v>
+      </c>
+      <c r="J40">
+        <v>44.67507174509343</v>
+      </c>
+      <c r="K40">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>226</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>73.64684099999999</v>
+      </c>
+      <c r="D41">
+        <v>-670.908836</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>120</v>
+      </c>
+      <c r="G41">
+        <v>43.52955708496283</v>
+      </c>
+      <c r="H41">
+        <v>640</v>
+      </c>
+      <c r="I41">
+        <v>91.66666666666666</v>
+      </c>
+      <c r="J41">
+        <v>39.64298948809115</v>
+      </c>
+      <c r="K41">
+        <v>582.8571428571429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>232</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>61.441538</v>
+      </c>
+      <c r="D42">
+        <v>-607.891492</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>86</v>
+      </c>
+      <c r="G42">
+        <v>37.89403406949889</v>
+      </c>
+      <c r="H42">
+        <v>571.4285714285714</v>
+      </c>
+      <c r="I42">
+        <v>69</v>
+      </c>
+      <c r="J42">
+        <v>35.62039202532895</v>
+      </c>
+      <c r="K42">
+        <v>537.1428571428571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>238</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>52.691559</v>
+      </c>
+      <c r="D43">
+        <v>-557.041798</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>63.33333333333333</v>
+      </c>
+      <c r="G43">
+        <v>34.01220618920875</v>
+      </c>
+      <c r="H43">
+        <v>525.7142857142857</v>
+      </c>
+      <c r="I43">
+        <v>52</v>
+      </c>
+      <c r="J43">
+        <v>32.5334146157649</v>
+      </c>
+      <c r="K43">
+        <v>502.8571428571429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>244</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>46.062751</v>
+      </c>
+      <c r="D44">
+        <v>-515.2696120000001</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>46.33333333333333</v>
+      </c>
+      <c r="G44">
+        <v>31.03701838073243</v>
+      </c>
+      <c r="H44">
+        <v>491.4285714285714</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+      <c r="J44">
+        <v>29.5934361304658</v>
+      </c>
+      <c r="K44">
+        <v>468.5714285714286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>40.641403</v>
+      </c>
+      <c r="D45">
+        <v>-480.477931</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="G45">
+        <v>28.20021140055731</v>
+      </c>
+      <c r="H45">
+        <v>457.1428571428571</v>
+      </c>
+      <c r="I45">
+        <v>23.66666666666666</v>
+      </c>
+      <c r="J45">
+        <v>27.49520611554339</v>
+      </c>
+      <c r="K45">
+        <v>445.7142857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>256</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>35.74831</v>
+      </c>
+      <c r="D46">
+        <v>-450.892136</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>18</v>
+      </c>
+      <c r="G46">
+        <v>26.1813326298356</v>
+      </c>
+      <c r="H46">
+        <v>434.2857142857143</v>
+      </c>
+      <c r="I46">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="J46">
+        <v>25.49235019220835</v>
+      </c>
+      <c r="K46">
+        <v>422.8571428571429</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>262</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>31.228975</v>
+      </c>
+      <c r="D47">
+        <v>-425.071351</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>25.82408247699184</v>
+      </c>
+      <c r="H47">
+        <v>438.0952380952381</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>25.82408247699184</v>
+      </c>
+      <c r="K47">
+        <v>438.0952380952381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>27.14538</v>
+      </c>
+      <c r="D48">
+        <v>-402.07628</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>25.26268937966593</v>
+      </c>
+      <c r="H48">
+        <v>438.0952380952381</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>25.26268937966593</v>
+      </c>
+      <c r="K48">
+        <v>438.0952380952381</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>274</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>23.65799</v>
+      </c>
+      <c r="D49">
+        <v>-381.350236</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>19.3501450567654</v>
+      </c>
+      <c r="H49">
+        <v>342.8571428571429</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>19.3501450567654</v>
+      </c>
+      <c r="K49">
+        <v>342.8571428571429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>280</v>
+      </c>
+      <c r="B50">
         <v>48</v>
       </c>
-      <c r="B19">
+      <c r="C50">
+        <v>20.805062</v>
+      </c>
+      <c r="D50">
+        <v>-362.624196</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>18.94701703474945</v>
+      </c>
+      <c r="H50">
+        <v>342.8571428571429</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>18.94701703474945</v>
+      </c>
+      <c r="K50">
+        <v>342.8571428571429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>286</v>
+      </c>
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>78.54718800000001</v>
-      </c>
-      <c r="D19">
-        <v>-373.185289</v>
-      </c>
-      <c r="E19">
+      <c r="C51">
+        <v>18.509934</v>
+      </c>
+      <c r="D51">
+        <v>-345.699546</v>
+      </c>
+      <c r="E51">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>23.71599411152311</v>
-      </c>
-      <c r="H19">
-        <v>438.0952380952381</v>
-      </c>
-      <c r="I19">
+      <c r="G51">
+        <v>18.56034321771374</v>
+      </c>
+      <c r="H51">
+        <v>342.8571428571429</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="J19">
+      <c r="J51">
         <v>18.56034321771374</v>
       </c>
-      <c r="K19">
+      <c r="K51">
+        <v>342.8571428571429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>292</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>16.662026</v>
+      </c>
+      <c r="D52">
+        <v>-330.382535</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>18.18913635335947</v>
+      </c>
+      <c r="H52">
+        <v>342.8571428571429</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>18.18913635335947</v>
+      </c>
+      <c r="K52">
         <v>342.8571428571429</v>
       </c>
     </row>
